--- a/src/mhsi/testData/Book123.xlsx
+++ b/src/mhsi/testData/Book123.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdev7\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B762B3-E787-40E2-8BBD-E7B1299F19DB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{53D8AF1A-ACB4-487B-8374-DE186EACC820}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8220" windowHeight="5250" xr2:uid="{32B34E36-AEE4-46E0-BC19-91EE15034FA4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5790" xr2:uid="{32B34E36-AEE4-46E0-BC19-91EE15034FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,17 +89,25 @@
     <t>2.41.0</t>
   </si>
   <si>
-    <t>Hai hellow GOPI</t>
+    <t>https://paytm.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,13 +130,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,11 +454,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB485609-625B-4CFA-B59F-1E3B287E2AE5}">
   <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T61" workbookViewId="0">
-      <selection activeCell="Y82" sqref="Y82"/>
+    <sheetView tabSelected="1" topLeftCell="K70" workbookViewId="0">
+      <selection activeCell="R78" sqref="R78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -541,11 +551,15 @@
       </c>
     </row>
     <row r="82" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W82" t="s">
+      <c r="W82" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="W82" r:id="rId1" xr:uid="{ABA09470-6D43-4F07-81D3-CFC40229E625}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>